--- a/data/trans_camb/P73-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P73-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,87</t>
+          <t>-4,25; 4,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,83</t>
+          <t>-5,27; 2,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -8,03</t>
+          <t>-14,15; -8,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,61</t>
+          <t>-3,01; 7,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,45</t>
+          <t>-1,33; 9,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -12,85</t>
+          <t>-19,7; -13,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,88</t>
+          <t>-2,18; 4,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,9</t>
+          <t>-1,84; 4,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -11,35</t>
+          <t>-15,52; -11,25</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 47,99</t>
+          <t>-33,8; 46,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 33,7</t>
+          <t>-42,26; 30,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 56,59</t>
+          <t>-15,57; 56,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 70,29</t>
+          <t>-8,76; 64,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 32,87</t>
+          <t>-14,56; 37,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 41,69</t>
+          <t>-12,53; 39,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,35</t>
+          <t>-10,81; -0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,06</t>
+          <t>-4,14; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -49,23</t>
+          <t>-56,78; -49,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,94</t>
+          <t>-4,76; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -0,91</t>
+          <t>-12,41; -1,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,36; -63,45</t>
+          <t>-71,02; -63,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,95</t>
+          <t>-6,32; 1,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,12</t>
+          <t>-6,12; 2,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-62,57; -56,88</t>
+          <t>-62,34; -57,01</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -0,61</t>
+          <t>-19,59; -0,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 14,11</t>
+          <t>-7,53; 11,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 7,59</t>
+          <t>-6,83; 9,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -1,56</t>
+          <t>-17,76; -1,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,38</t>
+          <t>-10,32; 2,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 3,7</t>
+          <t>-9,97; 3,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,02</t>
+          <t>-3,14; 5,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -0,39</t>
+          <t>-9,92; -0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-83,2; -76,44</t>
+          <t>-83,02; -76,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,67</t>
+          <t>-1,49; 6,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 0,37</t>
+          <t>-8,33; 0,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-86,2; -80,24</t>
+          <t>-86,2; -80,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,87</t>
+          <t>-1,22; 4,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,96</t>
+          <t>-7,67; -1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-83,97; -79,62</t>
+          <t>-84,08; -79,92</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 6,51</t>
+          <t>-3,82; 7,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -0,53</t>
+          <t>-12,0; -0,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,28</t>
+          <t>-1,74; 7,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,45</t>
+          <t>-9,76; 0,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 6,08</t>
+          <t>-1,49; 5,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -2,42</t>
+          <t>-9,24; -1,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -0,04</t>
+          <t>-9,8; -0,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -7,12</t>
+          <t>-16,75; -6,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-89,2; -82,64</t>
+          <t>-89,26; -82,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,53</t>
+          <t>-4,47; 5,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 1,19</t>
+          <t>-8,85; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-83,0; -75,79</t>
+          <t>-83,03; -75,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 0,99</t>
+          <t>-5,59; 1,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -4,34</t>
+          <t>-11,39; -4,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-85,11; -80,33</t>
+          <t>-85,26; -80,36</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,05</t>
+          <t>-11,08; -0,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -8,68</t>
+          <t>-19,1; -7,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,23</t>
+          <t>-5,33; 7,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 1,53</t>
+          <t>-10,63; 0,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,23</t>
+          <t>-6,57; 1,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,37; -5,35</t>
+          <t>-13,53; -5,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,78</t>
+          <t>-6,43; 3,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -1,93</t>
+          <t>-11,63; -1,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-91,27; -84,72</t>
+          <t>-90,83; -84,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,89</t>
+          <t>-4,46; 7,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,59</t>
+          <t>-16,21; -4,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,75; -73,34</t>
+          <t>-81,39; -73,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 3,25</t>
+          <t>-3,79; 3,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -5,09</t>
+          <t>-12,33; -4,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-85,0; -79,59</t>
+          <t>-85,24; -79,91</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,48</t>
+          <t>-7,24; 4,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -2,35</t>
+          <t>-12,98; -2,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 9,17</t>
+          <t>-5,62; 9,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -5,87</t>
+          <t>-20,28; -5,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,0</t>
+          <t>-4,48; 4,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -6,33</t>
+          <t>-14,72; -5,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 1,22</t>
+          <t>-8,65; 1,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -2,09</t>
+          <t>-12,01; -2,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-83,08; -76,03</t>
+          <t>-83,19; -76,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,13</t>
+          <t>-4,15; 6,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 5,74</t>
+          <t>-4,86; 5,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -43,0</t>
+          <t>-50,96; -43,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,81</t>
+          <t>-4,66; 2,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 1,31</t>
+          <t>-6,54; 1,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-63,94; -58,37</t>
+          <t>-63,86; -58,26</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 1,72</t>
+          <t>-10,59; 1,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -2,73</t>
+          <t>-14,76; -2,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 13,92</t>
+          <t>-8,67; 14,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 12,97</t>
+          <t>-9,69; 13,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,75</t>
+          <t>-7,36; 4,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 2,22</t>
+          <t>-10,55; 1,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,69; 2,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,11; 0,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -63,67</t>
+          <t>-67,06; -63,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,03; 4,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,52; 0,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -60,75</t>
+          <t>-64,14; -60,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,72; 2,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,77; -0,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-65,09; -62,75</t>
+          <t>-65,12; -62,87</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,05; 3,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,18; 0,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,05; 7,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,12; 0,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-1,12; 4,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,83; -0,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P73-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,14</t>
+          <t>-4,3; 3,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,82</t>
+          <t>-4,96; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -8,29</t>
+          <t>-13,49; -7,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 7,64</t>
+          <t>-3,31; 7,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 9,18</t>
+          <t>-0,74; 9,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -13,03</t>
+          <t>-19,92; -12,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,43</t>
+          <t>-2,14; 4,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,54</t>
+          <t>-1,73; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -11,25</t>
+          <t>-15,58; -11,08</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 46,29</t>
+          <t>-34,11; 45,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 30,8</t>
+          <t>-41,14; 35,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 56,88</t>
+          <t>-17,52; 51,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 64,74</t>
+          <t>-3,73; 71,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 37,31</t>
+          <t>-14,49; 37,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 39,21</t>
+          <t>-12,24; 42,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,28</t>
+          <t>-10,57; 0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,97</t>
+          <t>-4,73; 6,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,78; -49,47</t>
+          <t>-56,55; -49,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,98</t>
+          <t>-4,78; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -1,07</t>
+          <t>-13,02; -1,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,02; -63,33</t>
+          <t>-70,88; -63,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,3</t>
+          <t>-6,47; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,09</t>
+          <t>-6,26; 1,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-62,34; -57,01</t>
+          <t>-62,11; -56,64</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -0,46</t>
+          <t>-18,97; 0,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 11,64</t>
+          <t>-8,37; 13,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 9,21</t>
+          <t>-6,9; 9,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -1,65</t>
+          <t>-18,72; -2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 2,25</t>
+          <t>-10,54; 2,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 3,71</t>
+          <t>-10,15; 2,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,56</t>
+          <t>-3,81; 5,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -0,5</t>
+          <t>-9,66; -0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-83,02; -76,97</t>
+          <t>-83,31; -77,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,35</t>
+          <t>-1,25; 6,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,23</t>
+          <t>-8,5; -0,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-86,2; -80,27</t>
+          <t>-85,97; -80,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,58</t>
+          <t>-0,95; 5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -1,59</t>
+          <t>-7,76; -1,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-84,08; -79,92</t>
+          <t>-83,83; -79,52</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,23</t>
+          <t>-4,66; 6,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,0; -0,62</t>
+          <t>-11,71; -0,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,79</t>
+          <t>-1,47; 8,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,27</t>
+          <t>-9,93; -0,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,68</t>
+          <t>-1,19; 6,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -1,96</t>
+          <t>-9,41; -1,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -0,25</t>
+          <t>-9,52; 0,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -6,21</t>
+          <t>-16,62; -6,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-89,26; -82,58</t>
+          <t>-89,01; -82,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,39</t>
+          <t>-4,44; 5,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,46</t>
+          <t>-8,79; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-83,03; -75,82</t>
+          <t>-83,11; -75,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,46</t>
+          <t>-5,56; 1,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -4,35</t>
+          <t>-11,5; -4,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -80,36</t>
+          <t>-85,36; -80,33</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -0,3</t>
+          <t>-10,77; 0,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -7,49</t>
+          <t>-19,03; -7,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 7,0</t>
+          <t>-5,37; 7,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 0,63</t>
+          <t>-10,78; 1,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,78</t>
+          <t>-6,64; 1,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -5,41</t>
+          <t>-13,57; -5,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,49</t>
+          <t>-6,0; 2,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -1,87</t>
+          <t>-11,86; -2,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-90,83; -84,35</t>
+          <t>-90,81; -84,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,31</t>
+          <t>-4,79; 6,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -4,35</t>
+          <t>-16,46; -4,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,39; -73,01</t>
+          <t>-81,52; -72,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,5</t>
+          <t>-4,04; 3,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -4,37</t>
+          <t>-13,09; -4,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-85,24; -79,91</t>
+          <t>-85,23; -79,96</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,05</t>
+          <t>-6,67; 3,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -2,18</t>
+          <t>-13,15; -2,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,89</t>
+          <t>-6,02; 8,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,28; -5,97</t>
+          <t>-20,69; -6,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,33</t>
+          <t>-4,78; 4,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -5,4</t>
+          <t>-15,43; -6,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 1,5</t>
+          <t>-9,18; 1,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -2,06</t>
+          <t>-11,74; -2,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-83,19; -76,22</t>
+          <t>-83,05; -76,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,27</t>
+          <t>-4,52; 6,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,8</t>
+          <t>-5,03; 5,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-50,96; -43,47</t>
+          <t>-51,31; -43,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,87</t>
+          <t>-4,88; 3,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 1,13</t>
+          <t>-6,73; 0,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-63,86; -58,26</t>
+          <t>-63,74; -58,19</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,93</t>
+          <t>-11,24; 1,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,71</t>
+          <t>-14,38; -2,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 14,08</t>
+          <t>-9,1; 13,68</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 13,12</t>
+          <t>-10,17; 13,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,87</t>
+          <t>-7,78; 5,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 1,89</t>
+          <t>-10,65; 1,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,28</t>
+          <t>-2,82; 1,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,59</t>
+          <t>-4,21; 0,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -63,62</t>
+          <t>-66,98; -63,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,65</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,22</t>
+          <t>-4,45; 0,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -60,81</t>
+          <t>-64,33; -60,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,65</t>
+          <t>-0,63; 2,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -0,4</t>
+          <t>-3,62; -0,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-65,12; -62,87</t>
+          <t>-65,08; -62,75</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,55</t>
+          <t>-4,2; 2,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,92</t>
+          <t>-6,34; 0,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,59</t>
+          <t>-0,19; 7,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,32</t>
+          <t>-7,01; 0,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,2</t>
+          <t>-0,96; 4,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,65</t>
+          <t>-5,62; -0,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P73-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,1</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>1,45</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,93</t>
+          <t>-4,26; 3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,94</t>
+          <t>-5,07; 2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -7,93</t>
+          <t>-2,39; 7,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,15</t>
+          <t>-0,66; 9,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 9,34</t>
+          <t>-2,14; 3,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -12,64</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 4,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 4,76</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; -11,08</t>
+          <t>-1,96; 4,9</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>10,92%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 45,06</t>
+          <t>-33,35; 47,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 35,41</t>
+          <t>-41,38; 33,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; 56,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 51,8</t>
+          <t>-3,57; 70,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 71,56</t>
+          <t>-14,31; 32,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 37,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; 42,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-13,21; 41,69</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-53,12</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-67,27</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-2,19</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-59,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 0,37</t>
+          <t>-11,0; -0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 6,81</t>
+          <t>-4,59; 7,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,55; -49,29</t>
+          <t>-5,41; 4,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 6,07</t>
+          <t>-12,14; -0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -1,73</t>
+          <t>-6,44; 1,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,88; -63,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 1,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 1,58</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-62,11; -56,64</t>
+          <t>-6,43; 2,12</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,13%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-3,67%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 0,65</t>
+          <t>-19,46; -0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 13,55</t>
+          <t>-8,26; 14,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 7,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 9,48</t>
+          <t>-17,51; -1,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,72; -2,66</t>
+          <t>-10,46; 3,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 2,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 2,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,41; 3,7</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-80,13</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-83,44</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-4,74</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-81,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,37</t>
+          <t>-4,32; 5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -0,74</t>
+          <t>-9,69; -0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-83,31; -77,02</t>
+          <t>-1,35; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,85</t>
+          <t>-8,28; 0,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,16</t>
+          <t>-1,17; 4,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-85,97; -80,37</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 5,07</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; -1,48</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-83,83; -79,52</t>
+          <t>-7,75; -1,96</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-5,79%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,83</t>
+          <t>-5,28; 6,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -0,95</t>
+          <t>-11,67; -0,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 8,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,36</t>
+          <t>-9,72; 0,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,2</t>
+          <t>-1,41; 6,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 6,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; -1,89</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,25; -2,42</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-86,09</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-79,65</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-8,0</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-82,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,37</t>
+          <t>-9,65; -0,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -6,29</t>
+          <t>-16,42; -7,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-89,01; -82,61</t>
+          <t>-4,62; 5,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,61</t>
+          <t>-9,06; 1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 1,32</t>
+          <t>-5,46; 0,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-83,11; -75,96</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 1,24</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; -4,31</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-85,36; -80,33</t>
+          <t>-11,26; -4,34</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>-2,68%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-9,66%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 0,39</t>
+          <t>-11,0; -0,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -7,66</t>
+          <t>-18,69; -8,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 7,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 7,4</t>
+          <t>-11,05; 1,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 1,7</t>
+          <t>-6,47; 1,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-6,64; 1,52</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-13,57; -5,35</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-13,37; -5,35</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-87,99</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-10,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-77,65</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>-8,78</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-82,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,9</t>
+          <t>-5,82; 3,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -2,06</t>
+          <t>-12,45; -1,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-90,81; -84,16</t>
+          <t>-5,15; 6,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,36</t>
+          <t>-16,86; -4,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -4,69</t>
+          <t>-4,24; 3,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,52; -72,97</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 3,37</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; -4,99</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-85,23; -79,96</t>
+          <t>-13,34; -5,09</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-13,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>-10,61%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,39</t>
+          <t>-6,42; 4,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,37</t>
+          <t>-13,83; -2,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 9,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 8,6</t>
+          <t>-20,85; -5,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -6,45</t>
+          <t>-4,99; 4,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 4,18</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-15,43; -6,09</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-15,73; -6,33</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-79,85</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-47,02</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-2,76</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-61,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 1,01</t>
+          <t>-8,69; 1,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -2,02</t>
+          <t>-12,13; -2,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-83,05; -76,15</t>
+          <t>-4,77; 6,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 6,18</t>
+          <t>-5,22; 5,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,94</t>
+          <t>-4,95; 2,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-51,31; -43,41</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 3,05</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 0,8</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; -58,19</t>
+          <t>-6,84; 1,31</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-4,53%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 1,32</t>
+          <t>-10,62; 1,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -2,64</t>
+          <t>-14,77; -2,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; 13,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 13,68</t>
+          <t>-10,65; 12,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 13,66</t>
+          <t>-7,88; 4,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 5,19</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 1,4</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,98; 2,22</t>
         </is>
       </c>
     </row>
@@ -1938,37 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-65,41</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-62,57</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
           <t>-2,04</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-63,96</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,84</t>
+          <t>-2,81; 1,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,38</t>
+          <t>-4,13; 0,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-66,98; -63,7</t>
+          <t>-0,32; 4,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-4,56; 0,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,18</t>
+          <t>-0,93; 2,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -60,78</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 2,69</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; -0,43</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>-65,08; -62,75</t>
+          <t>-3,73; -0,49</t>
         </is>
       </c>
     </row>
@@ -2044,37 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
           <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,85</t>
+          <t>-4,19; 2,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,58</t>
+          <t>-6,24; 0,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 7,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,23</t>
+          <t>-7,13; 0,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,28</t>
+          <t>-1,43; 4,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 4,27</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; -0,68</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,77; -0,77</t>
         </is>
       </c>
     </row>
@@ -2141,11 +1690,11 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P73-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P73-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 1,22</t>
+          <t>-11,34; 0,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -2,09</t>
+          <t>-14,55; -3,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,13</t>
+          <t>-8,15; 6,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 5,74</t>
+          <t>-7,97; 6,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,81</t>
+          <t>-7,89; 2,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 1,31</t>
+          <t>-8,96; 0,61</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,1%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-6,09%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 1,72</t>
+          <t>-12,71; 0,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -2,73</t>
+          <t>-16,38; -3,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 13,92</t>
+          <t>-12,73; 11,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 12,97</t>
+          <t>-12,34; 11,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,75</t>
+          <t>-10,4; 3,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 2,22</t>
+          <t>-12,03; 0,87</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-9,15; 8,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-12,08; 3,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-4,09; 11,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-5,34; 10,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-3,85; 8,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-5,74; 5,72</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-12,34; 13,98</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 5,78</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 39,75</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 34,67</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 19,37</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 13,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 1,8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 0,58</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 4,63</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 0,08</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 2,63</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; -0,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-4,19; 2,77</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-6,24; 0,91</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,5; 7,52</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-7,13; 0,13</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-1,43; 4,15</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-5,77; -0,77</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P73-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P73-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,87</t>
+          <t>-4,02; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,83</t>
+          <t>-5,06; 2,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,61</t>
+          <t>-2,67; 7,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,45</t>
+          <t>-0,92; 9,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,88</t>
+          <t>-1,95; 4,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,9</t>
+          <t>-1,79; 4,65</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 47,99</t>
+          <t>-32,25; 48,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 33,7</t>
+          <t>-41,28; 30,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 56,59</t>
+          <t>-15,56; 53,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 70,29</t>
+          <t>-5,34; 70,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 32,87</t>
+          <t>-13,22; 34,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 41,69</t>
+          <t>-11,88; 38,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,35</t>
+          <t>-10,75; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,06</t>
+          <t>-4,74; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,94</t>
+          <t>-5,52; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -0,91</t>
+          <t>-11,74; -1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,95</t>
+          <t>-6,21; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,12</t>
+          <t>-6,22; 1,54</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -0,61</t>
+          <t>-19,63; -0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 14,11</t>
+          <t>-8,44; 13,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 7,59</t>
+          <t>-8,03; 8,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -1,56</t>
+          <t>-16,81; -1,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,38</t>
+          <t>-10,16; 3,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 3,7</t>
+          <t>-10,09; 2,65</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,02</t>
+          <t>-3,55; 5,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -0,39</t>
+          <t>-9,89; -0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,67</t>
+          <t>-1,25; 6,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 0,37</t>
+          <t>-8,43; -0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,87</t>
+          <t>-1,39; 4,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,96</t>
+          <t>-7,67; -1,26</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 6,51</t>
+          <t>-4,34; 6,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -0,53</t>
+          <t>-12,21; -1,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,28</t>
+          <t>-1,49; 8,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,45</t>
+          <t>-9,97; -0,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 6,08</t>
+          <t>-1,67; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -2,42</t>
+          <t>-9,21; -1,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -0,04</t>
+          <t>-9,31; -0,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -7,12</t>
+          <t>-17,34; -7,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,53</t>
+          <t>-4,41; 5,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 1,19</t>
+          <t>-8,57; 1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 0,99</t>
+          <t>-5,61; 1,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -4,34</t>
+          <t>-11,39; -4,49</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,05</t>
+          <t>-10,51; -0,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -8,68</t>
+          <t>-19,55; -8,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,23</t>
+          <t>-5,29; 7,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 1,53</t>
+          <t>-10,65; 1,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,23</t>
+          <t>-6,58; 1,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,37; -5,35</t>
+          <t>-13,5; -5,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,78</t>
+          <t>-6,28; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -1,93</t>
+          <t>-11,83; -1,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,89</t>
+          <t>-4,3; 7,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,59</t>
+          <t>-16,87; -4,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 3,25</t>
+          <t>-3,72; 3,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -5,09</t>
+          <t>-12,96; -4,87</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,48</t>
+          <t>-6,92; 3,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -2,35</t>
+          <t>-13,21; -2,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 9,17</t>
+          <t>-5,31; 9,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -5,87</t>
+          <t>-21,0; -5,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,0</t>
+          <t>-4,36; 4,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -6,33</t>
+          <t>-15,35; -6,02</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 0,48</t>
+          <t>-10,77; 0,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -3,01</t>
+          <t>-14,96; -3,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 6,71</t>
+          <t>-8,02; 6,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 6,85</t>
+          <t>-8,3; 6,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,07</t>
+          <t>-7,91; 2,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,61</t>
+          <t>-9,72; 0,33</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 0,56</t>
+          <t>-11,94; 0,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -3,54</t>
+          <t>-16,77; -3,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 11,36</t>
+          <t>-12,55; 11,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 11,84</t>
+          <t>-13,33; 10,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,01</t>
+          <t>-10,66; 3,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 0,87</t>
+          <t>-12,86; 0,45</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 8,9</t>
+          <t>-9,24; 7,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 3,69</t>
+          <t>-12,92; 4,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 11,4</t>
+          <t>-3,72; 11,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 10,16</t>
+          <t>-5,21; 9,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,31</t>
+          <t>-2,88; 8,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,72</t>
+          <t>-5,48; 6,57</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 13,98</t>
+          <t>-12,57; 12,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 5,78</t>
+          <t>-17,49; 6,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 39,75</t>
+          <t>-9,55; 36,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 34,67</t>
+          <t>-13,74; 31,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 19,37</t>
+          <t>-5,85; 19,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 13,19</t>
+          <t>-10,92; 14,88</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,73; 2,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,31; 0,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,09; 4,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,46; 0,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,59; 2,65</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,61; -0,46</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,09; 3,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,49; 0,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,09; 7,37</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,01; 0,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-0,92; 4,21</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,57; -0,71</t>
         </is>
       </c>
     </row>
